--- a/notebook/release_notes.xlsx
+++ b/notebook/release_notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/Dropbox (DriscollMML)/Project_WaTCH/ANALYSIS/UPDATES/DASHBOARD/WaTCH-WV/notebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED94807-6F1D-C844-99D5-21D6800E06DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBBCA2-8A8E-3E44-B5AB-C273A8C23758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51740" yWindow="80" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>DONE</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>0.9.0</t>
+  </si>
+  <si>
+    <t>Add content for Ethical Consideration tab.</t>
+  </si>
+  <si>
+    <t>Add tab for Ethical considerations of WW testing.</t>
   </si>
 </sst>
 </file>
@@ -619,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141715B-50BC-AB41-8F99-F7D389132E3C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -734,37 +740,37 @@
     </row>
     <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -789,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -797,29 +803,45 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="16" spans="1:6" ht="44" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="17" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F16">
-    <sortCondition ref="A2:A16"/>
-    <sortCondition ref="B2:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
+    <sortCondition ref="A2:A17"/>
+    <sortCondition ref="B2:B17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notebook/release_notes.xlsx
+++ b/notebook/release_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CBBCA2-8A8E-3E44-B5AB-C273A8C23758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F024062A-5E33-A847-9772-7D5F501637BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="80" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>DONE</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Add tab for Ethical considerations of WW testing.</t>
+  </si>
+  <si>
+    <t>Deploy from github directly.</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141715B-50BC-AB41-8F99-F7D389132E3C}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -818,6 +821,15 @@
       <c r="A15" s="5">
         <v>4</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44671</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
@@ -836,6 +848,14 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/release_notes.xlsx
+++ b/notebook/release_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F024062A-5E33-A847-9772-7D5F501637BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE77D10-27A8-AB49-85D8-7B45347D8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>DONE</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Move date slider to overlay, remove from control panel.</t>
   </si>
   <si>
-    <t>Color map points by...?? Thinking about deviation from CI of past N samples. Daily? weekly? mean of past X?</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -146,6 +143,24 @@
   </si>
   <si>
     <t>Deploy from github directly.</t>
+  </si>
+  <si>
+    <t>Color map points by alert status - combo of level and trend.</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>POSTPONED</t>
+  </si>
+  <si>
+    <t>WORKING</t>
+  </si>
+  <si>
+    <t>Tried numerous times but doesn't seem to work as advertised.</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -549,22 +564,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="44" x14ac:dyDescent="0.2">
@@ -572,16 +587,16 @@
         <v>44670</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>0.9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.2">
@@ -589,19 +604,19 @@
         <v>44671</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>0.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.2">
@@ -609,16 +624,16 @@
         <v>44673</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -631,13 +646,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.33203125" style="2" customWidth="1"/>
@@ -647,22 +662,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -676,7 +691,7 @@
         <v>44670</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -693,7 +708,7 @@
         <v>44670</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -710,7 +725,7 @@
         <v>44670</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -727,7 +742,7 @@
         <v>44670</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
@@ -737,8 +752,17 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44696</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -746,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -754,18 +778,21 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -773,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -787,18 +814,21 @@
         <v>44670</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -806,15 +836,21 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
@@ -828,16 +864,19 @@
         <v>44671</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>5</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
@@ -846,16 +885,28 @@
       <c r="A17" s="5">
         <v>7</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44681</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/release_notes.xlsx
+++ b/notebook/release_notes.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE77D10-27A8-AB49-85D8-7B45347D8061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17387282-16B2-4A44-9324-57709DA47B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23140" windowHeight="14180" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="2" r:id="rId1"/>
     <sheet name="current punchlist" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'current punchlist'!$A$1:$G$18</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>DONE</t>
   </si>
@@ -85,18 +90,12 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
     <t>WaTCH</t>
   </si>
   <si>
     <t>Public</t>
   </si>
   <si>
-    <t>Initial release</t>
-  </si>
-  <si>
     <t>Add content to info tab.</t>
   </si>
   <si>
@@ -127,18 +126,12 @@
     <t>Move to github.</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>0.9.1</t>
   </si>
   <si>
     <t>0.9.0</t>
   </si>
   <si>
-    <t>Add content for Ethical Consideration tab.</t>
-  </si>
-  <si>
     <t>Add tab for Ethical considerations of WW testing.</t>
   </si>
   <si>
@@ -151,9 +144,6 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>POSTPONED</t>
-  </si>
-  <si>
     <t>WORKING</t>
   </si>
   <si>
@@ -161,13 +151,67 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>ON HOLD</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Major upgrade</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
+  </si>
+  <si>
+    <t>Gordon and Lisa, primarily.</t>
+  </si>
+  <si>
+    <t>RELEASED</t>
+  </si>
+  <si>
+    <t>NOT STARTED</t>
+  </si>
+  <si>
+    <t>SHELVED</t>
+  </si>
+  <si>
+    <t>Change mean plot to individual line plots per facility?</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Feature improvement</t>
+  </si>
+  <si>
+    <t>Bug fix - minor</t>
+  </si>
+  <si>
+    <t>Bug fix - major</t>
+  </si>
+  <si>
+    <t>Feature - new</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +229,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,9 +281,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE8166F-F26A-E142-B706-77F651C2C6D4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.33203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -582,18 +632,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>44670</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>0.9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -604,19 +654,19 @@
         <v>44671</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>0.9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.2">
@@ -624,16 +674,33 @@
         <v>44673</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>44713</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -643,277 +710,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141715B-50BC-AB41-8F99-F7D389132E3C}">
-  <dimension ref="A1:F18"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="22.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="69.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="22.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="29.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="69.83203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="44" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="44" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44696</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44670</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="44" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44671</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="44" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="44" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44681</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G18" xr:uid="{B141715B-50BC-AB41-8F99-F7D389132E3C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="NOT STARTED"/>
+        <filter val="ON HOLD"/>
+        <filter val="PENDING"/>
+        <filter val="SHELVED"/>
+        <filter val="WORKING"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter one of the allowed values." sqref="C7:C1048576" xr:uid="{FAEB0EB5-A4EC-8C42-AB83-52EB33F686C1}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter one of the allowed values." xr:uid="{F9354F76-B3D0-8543-A8E6-30F619AE123A}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>A7:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter one of the allowed values." xr:uid="{64E9A670-E1C1-594C-93DC-579CEE0EF867}">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DABE77-BD04-4E4F-86AD-C81E8FDCB2AA}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>44670</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44670</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44670</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44670</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44696</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44670</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44671</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="44" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="44" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44681</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
-    <sortCondition ref="A2:A17"/>
-    <sortCondition ref="B2:B17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/notebook/release_notes.xlsx
+++ b/notebook/release_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tpd0001/github/watch-wv/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17387282-16B2-4A44-9324-57709DA47B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2691CB-C3F2-CF4B-89EC-B14740D2C2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23140" windowHeight="14180" activeTab="1" xr2:uid="{4289006E-909A-254F-9CBF-40213D5D9E21}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>DONE</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>master</t>
+  </si>
+  <si>
+    <t>Add capability for multiple pathogens.</t>
+  </si>
+  <si>
+    <t>multipath</t>
   </si>
 </sst>
 </file>
@@ -711,10 +717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B141715B-50BC-AB41-8F99-F7D389132E3C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -828,9 +834,6 @@
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
@@ -975,6 +978,20 @@
       </c>
       <c r="F18" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
